--- a/auc3.xlsx
+++ b/auc3.xlsx
@@ -1362,20 +1362,20 @@
       </c>
       <c r="H4" s="11">
         <f>G4*(F4-F5)</f>
-        <v>0.730589565816</v>
+        <v>0.730822026436536</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="12">
-        <v>133722</v>
+        <v>133633</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
       </c>
       <c r="D5" s="11">
         <f>SUM($B$4:B5)</f>
-        <v>133722</v>
+        <v>133633</v>
       </c>
       <c r="E5" s="11">
         <f>SUM($C$4:C5)</f>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F5" s="11">
         <f>1-D5/$D$9</f>
-        <v>0.269410434184</v>
+        <v>0.269177973563464</v>
       </c>
       <c r="G5" s="11">
         <f>1-E5/$E$9</f>
@@ -1391,20 +1391,20 @@
       </c>
       <c r="H5" s="11">
         <f>G5*(F5-F6)</f>
-        <v>0.165620407248966</v>
+        <v>0.215003308668713</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="12">
-        <v>30314</v>
+        <v>39314</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
       </c>
       <c r="D6" s="11">
         <f>SUM($B$4:B6)</f>
-        <v>164036</v>
+        <v>172947</v>
       </c>
       <c r="E6" s="11">
         <f>SUM($C$4:C6)</f>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F6" s="11">
         <f>1-D6/$D$9</f>
-        <v>0.103790026935034</v>
+        <v>0.0541746648947515</v>
       </c>
       <c r="G6" s="11">
         <f>1-E6/$E$9</f>
@@ -1420,20 +1420,20 @@
       </c>
       <c r="H6" s="11">
         <f>G6*(F6-F7)</f>
-        <v>0.0499144962930186</v>
+        <v>0.0282522025889649</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="12">
-        <v>9136</v>
+        <v>5166</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="11">
         <f>SUM($B$4:B7)</f>
-        <v>173172</v>
+        <v>178113</v>
       </c>
       <c r="E7" s="11">
         <f>SUM($C$4:C7)</f>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F7" s="11">
         <f>1-D7/$D$9</f>
-        <v>0.0538755306420154</v>
+        <v>0.0259224623057866</v>
       </c>
       <c r="G7" s="11">
         <f>1-E7/$E$9</f>
@@ -1449,49 +1449,49 @@
       </c>
       <c r="H7" s="11">
         <f>G7*(F7-F8)</f>
-        <v>0.0269377653210077</v>
+        <v>0.0045446342143689</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="12">
-        <v>9861</v>
+        <v>1662</v>
       </c>
       <c r="C8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11">
         <f>SUM($B$4:B8)</f>
-        <v>183033</v>
+        <v>179775</v>
       </c>
       <c r="E8" s="11">
         <f>SUM($C$4:C8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="11">
         <f>1-D8/$D$9</f>
-        <v>0</v>
+        <v>0.0168331938770488</v>
       </c>
       <c r="G8" s="11">
         <f>1-E8/$E$9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="11">
         <f>G8*(F8-F9)</f>
-        <v>0</v>
+        <v>0.008416596938524401</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="12">
-        <v>0</v>
+        <v>3078</v>
       </c>
       <c r="C9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="11">
         <f>SUM($B$4:B9)</f>
-        <v>183033</v>
+        <v>182853</v>
       </c>
       <c r="E9" s="11">
         <f>SUM($C$4:C9)</f>
@@ -1514,7 +1514,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="12">
         <f>SUM(B5:B9)</f>
-        <v>183033</v>
+        <v>182853</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C5:C9)</f>
@@ -1525,8 +1525,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11">
-        <f>SUM(H4:H7)</f>
-        <v>0.973062234678992</v>
+        <f>SUM(H4:H8)</f>
+        <v>0.987038768847107</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -1567,20 +1567,20 @@
       </c>
       <c r="H12" s="11">
         <f>G12*(F12-F13)</f>
-        <v>0.731336753333406</v>
+        <v>0.710934839972761</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="12">
-        <v>133722</v>
+        <v>133633</v>
       </c>
       <c r="C13" s="11">
         <v>0</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(B12:B13)</f>
-        <v>133722</v>
+        <v>133633</v>
       </c>
       <c r="E13" s="11">
         <f>SUM(C12:C13)</f>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F13" s="11">
         <f>1-D13/$D$17</f>
-        <v>0.268663246666594</v>
+        <v>0.289065160027239</v>
       </c>
       <c r="G13" s="11">
         <f>1-E13/$E$17</f>
@@ -1596,65 +1596,65 @@
       </c>
       <c r="H13" s="11">
         <f>G13*(F13-F14)</f>
-        <v>0.164799886243068</v>
+        <v>0.209141981613892</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="12">
-        <v>30133</v>
+        <v>39312</v>
       </c>
       <c r="C14" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="11">
         <f>SUM(B12:B14)</f>
-        <v>163855</v>
+        <v>172945</v>
       </c>
       <c r="E14" s="11">
         <f>SUM(C12:C14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="11">
         <f>1-D14/$D$17</f>
-        <v>0.103863360423526</v>
+        <v>0.07992317841334701</v>
       </c>
       <c r="G14" s="11">
         <f>1-E14/$E$17</f>
-        <v>0.9375</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H14" s="11">
         <f>G14*(F14-F15)</f>
-        <v>0.0468221891646524</v>
+        <v>0.0232461826562951</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="12">
-        <v>9132</v>
+        <v>5164</v>
       </c>
       <c r="C15" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="11">
         <f>SUM(B12:B15)</f>
-        <v>172987</v>
+        <v>178109</v>
       </c>
       <c r="E15" s="11">
         <f>SUM(C12:C15)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" s="11">
         <f>1-D15/$D$17</f>
-        <v>0.0539196919812301</v>
+        <v>0.052450417092271</v>
       </c>
       <c r="G15" s="11">
         <f>1-E15/$E$17</f>
-        <v>0.5</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="H15" s="11">
         <f>G15*(F15-F16)</f>
-        <v>0.0269598459906151</v>
+        <v>0.0322771797490898</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -1663,15 +1663,15 @@
         <v>9859</v>
       </c>
       <c r="C16" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="11">
         <f>SUM(B12:B16)</f>
-        <v>182846</v>
+        <v>187968</v>
       </c>
       <c r="E16" s="11">
         <f>SUM(C12:C16)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="11">
         <f>1-D16/$D$17</f>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G16" s="11">
         <f>1-E16/$E$17</f>
-        <v>0</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H16" s="11">
         <f>G16*(F16-F17)</f>
@@ -1692,15 +1692,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="11">
         <f>SUM(B12:B17)</f>
-        <v>182846</v>
+        <v>187968</v>
       </c>
       <c r="E17" s="11">
         <f>SUM(C12:C17)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11">
         <f>1-D17/$D$17</f>
@@ -1719,11 +1719,11 @@
       <c r="A18" s="8"/>
       <c r="B18" s="12">
         <f>SUM(B13:B17)</f>
-        <v>182846</v>
+        <v>187968</v>
       </c>
       <c r="C18" s="11">
         <f>SUM(C13:C17)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -1731,7 +1731,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11">
         <f>SUM(H12:H15)</f>
-        <v>0.969918674731742</v>
+        <v>0.975600183992038</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -1782,20 +1782,20 @@
       </c>
       <c r="H21" s="11">
         <f>G21*(F21-F22)</f>
-        <v>0.730589565816</v>
+        <v>0.737004947082214</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="12">
-        <v>133722</v>
+        <v>133633</v>
       </c>
       <c r="C22" s="11">
         <v>0</v>
       </c>
       <c r="D22" s="11">
         <f>SUM(B21:B22)</f>
-        <v>133722</v>
+        <v>133633</v>
       </c>
       <c r="E22" s="11">
         <f>SUM(C21:C22)</f>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F22" s="11">
         <f>1-D22/$D$26</f>
-        <v>0.269410434184</v>
+        <v>0.262995052917786</v>
       </c>
       <c r="G22" s="11">
         <f>1-E22/$E$26</f>
@@ -1811,111 +1811,111 @@
       </c>
       <c r="H22" s="11">
         <f>G22*(F22-F23)</f>
-        <v>0.165620407248966</v>
+        <v>0.216822285585074</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="12">
-        <v>30314</v>
+        <v>39314</v>
       </c>
       <c r="C23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(B21:B23)</f>
-        <v>164036</v>
+        <v>172947</v>
       </c>
       <c r="E23" s="11">
         <f>SUM(C21:C23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <f>1-D23/$D$26</f>
-        <v>0.103790026935034</v>
+        <v>0.046172767332712</v>
       </c>
       <c r="G23" s="11">
         <f>1-E23/$E$26</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="11">
         <f>G23*(F23-F24)</f>
-        <v>0.0249572481465093</v>
+        <v>0.0284967377936124</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="12">
-        <v>9136</v>
+        <v>5167</v>
       </c>
       <c r="C24" s="11">
-        <v>1</v>
+        <v>1507</v>
       </c>
       <c r="D24" s="11">
         <f>SUM(B21:B24)</f>
-        <v>173172</v>
+        <v>178114</v>
       </c>
       <c r="E24" s="11">
         <f>SUM(C21:C24)</f>
-        <v>2</v>
+        <v>1507</v>
       </c>
       <c r="F24" s="11">
         <f>1-D24/$D$26</f>
-        <v>0.0538755306420154</v>
+        <v>0.0176760295390996</v>
       </c>
       <c r="G24" s="11">
         <f>1-E24/$E$26</f>
-        <v>0</v>
+        <v>0.509120521172638</v>
       </c>
       <c r="H24" s="11">
         <f>G24*(F24-F25)</f>
-        <v>0</v>
+        <v>0.000356599728593923</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="12">
-        <v>9861</v>
+        <v>127</v>
       </c>
       <c r="C25" s="11">
-        <v>0</v>
+        <v>1535</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(B21:B25)</f>
-        <v>183033</v>
+        <v>178241</v>
       </c>
       <c r="E25" s="11">
         <f>SUM(C21:C25)</f>
-        <v>2</v>
+        <v>3042</v>
       </c>
       <c r="F25" s="11">
         <f>1-D25/$D$26</f>
-        <v>0</v>
+        <v>0.0169756065277219</v>
       </c>
       <c r="G25" s="11">
         <f>1-E25/$E$26</f>
-        <v>0</v>
+        <v>0.009120521172638439</v>
       </c>
       <c r="H25" s="11">
         <f>G25*(F25-F26)</f>
-        <v>0</v>
+        <v>0.000154826378754467</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="12">
-        <v>0</v>
+        <v>3078</v>
       </c>
       <c r="C26" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(B21:B26)</f>
-        <v>183033</v>
+        <v>181319</v>
       </c>
       <c r="E26" s="11">
         <f>SUM(C21:C26)</f>
-        <v>2</v>
+        <v>3070</v>
       </c>
       <c r="F26" s="11">
         <f>1-D26/$D$26</f>
@@ -1934,11 +1934,11 @@
       <c r="A27" s="8"/>
       <c r="B27" s="12">
         <f>SUM(B22:B26)</f>
-        <v>183033</v>
+        <v>181319</v>
       </c>
       <c r="C27" s="11">
         <f>SUM(C22:C26)</f>
-        <v>2</v>
+        <v>3070</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1946,7 +1946,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="11">
         <f>SUM(H21:H24)</f>
-        <v>0.921167221211475</v>
+        <v>0.982680570189494</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">

--- a/auc3.xlsx
+++ b/auc3.xlsx
@@ -1362,20 +1362,20 @@
       </c>
       <c r="H4" s="11">
         <f>G4*(F4-F5)</f>
-        <v>0.730822026436536</v>
+        <v>0.730258732424406</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="12">
-        <v>133633</v>
+        <v>133530</v>
       </c>
       <c r="C5" s="11">
         <v>0</v>
       </c>
       <c r="D5" s="11">
         <f>SUM($B$4:B5)</f>
-        <v>133633</v>
+        <v>133530</v>
       </c>
       <c r="E5" s="11">
         <f>SUM($C$4:C5)</f>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F5" s="11">
         <f>1-D5/$D$9</f>
-        <v>0.269177973563464</v>
+        <v>0.269741267575594</v>
       </c>
       <c r="G5" s="11">
         <f>1-E5/$E$9</f>
@@ -1391,20 +1391,20 @@
       </c>
       <c r="H5" s="11">
         <f>G5*(F5-F6)</f>
-        <v>0.215003308668713</v>
+        <v>0.165520937583743</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="12">
-        <v>39314</v>
+        <v>30266</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
       </c>
       <c r="D6" s="11">
         <f>SUM($B$4:B6)</f>
-        <v>172947</v>
+        <v>163796</v>
       </c>
       <c r="E6" s="11">
         <f>SUM($C$4:C6)</f>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F6" s="11">
         <f>1-D6/$D$9</f>
-        <v>0.0541746648947515</v>
+        <v>0.104220329991851</v>
       </c>
       <c r="G6" s="11">
         <f>1-E6/$E$9</f>
@@ -1420,20 +1420,20 @@
       </c>
       <c r="H6" s="11">
         <f>G6*(F6-F7)</f>
-        <v>0.0282522025889649</v>
+        <v>0.050155042575183</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="12">
-        <v>5166</v>
+        <v>9171</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="11">
         <f>SUM($B$4:B7)</f>
-        <v>178113</v>
+        <v>172967</v>
       </c>
       <c r="E7" s="11">
         <f>SUM($C$4:C7)</f>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F7" s="11">
         <f>1-D7/$D$9</f>
-        <v>0.0259224623057866</v>
+        <v>0.054065287416668</v>
       </c>
       <c r="G7" s="11">
         <f>1-E7/$E$9</f>
@@ -1449,20 +1449,20 @@
       </c>
       <c r="H7" s="11">
         <f>G7*(F7-F8)</f>
-        <v>0.0045446342143689</v>
+        <v>0.009384587619563249</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="12">
-        <v>1662</v>
+        <v>3432</v>
       </c>
       <c r="C8" s="11">
         <v>0</v>
       </c>
       <c r="D8" s="11">
         <f>SUM($B$4:B8)</f>
-        <v>179775</v>
+        <v>176399</v>
       </c>
       <c r="E8" s="11">
         <f>SUM($C$4:C8)</f>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="F8" s="11">
         <f>1-D8/$D$9</f>
-        <v>0.0168331938770488</v>
+        <v>0.0352961121775415</v>
       </c>
       <c r="G8" s="11">
         <f>1-E8/$E$9</f>
@@ -1478,13 +1478,13 @@
       </c>
       <c r="H8" s="11">
         <f>G8*(F8-F9)</f>
-        <v>0.008416596938524401</v>
+        <v>0.0176480560887708</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="12">
-        <v>3078</v>
+        <v>6454</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -1526,7 +1526,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11">
         <f>SUM(H4:H8)</f>
-        <v>0.987038768847107</v>
+        <v>0.972967356291666</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -1567,20 +1567,20 @@
       </c>
       <c r="H12" s="11">
         <f>G12*(F12-F13)</f>
-        <v>0.710934839972761</v>
+        <v>0.730290683365692</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="12">
-        <v>133633</v>
+        <v>133530</v>
       </c>
       <c r="C13" s="11">
         <v>0</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(B12:B13)</f>
-        <v>133633</v>
+        <v>133530</v>
       </c>
       <c r="E13" s="11">
         <f>SUM(C12:C13)</f>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F13" s="11">
         <f>1-D13/$D$17</f>
-        <v>0.289065160027239</v>
+        <v>0.269709316634308</v>
       </c>
       <c r="G13" s="11">
         <f>1-E13/$E$17</f>
@@ -1596,111 +1596,111 @@
       </c>
       <c r="H13" s="11">
         <f>G13*(F13-F14)</f>
-        <v>0.209141981613892</v>
+        <v>0.165528179605677</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="12">
-        <v>39312</v>
+        <v>30266</v>
       </c>
       <c r="C14" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="11">
         <f>SUM(B12:B14)</f>
-        <v>172945</v>
+        <v>163796</v>
       </c>
       <c r="E14" s="11">
         <f>SUM(C12:C14)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="11">
         <f>1-D14/$D$17</f>
-        <v>0.07992317841334701</v>
+        <v>0.104181137028631</v>
       </c>
       <c r="G14" s="11">
         <f>1-E14/$E$17</f>
-        <v>0.846153846153846</v>
+        <v>1</v>
       </c>
       <c r="H14" s="11">
         <f>G14*(F14-F15)</f>
-        <v>0.0232461826562951</v>
+        <v>0.0501517678908367</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="12">
-        <v>5164</v>
+        <v>9170</v>
       </c>
       <c r="C15" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11">
         <f>SUM(B12:B15)</f>
-        <v>178109</v>
+        <v>172966</v>
       </c>
       <c r="E15" s="11">
         <f>SUM(C12:C15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="11">
         <f>1-D15/$D$17</f>
-        <v>0.052450417092271</v>
+        <v>0.0540293691377943</v>
       </c>
       <c r="G15" s="11">
         <f>1-E15/$E$17</f>
-        <v>0.615384615384615</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="H15" s="11">
         <f>G15*(F15-F16)</f>
-        <v>0.0322771797490898</v>
+        <v>0.0136349963580678</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="12">
-        <v>9859</v>
+        <v>3428</v>
       </c>
       <c r="C16" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" s="11">
         <f>SUM(B12:B16)</f>
-        <v>187968</v>
+        <v>176394</v>
       </c>
       <c r="E16" s="11">
         <f>SUM(C12:C16)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="11">
         <f>1-D16/$D$17</f>
-        <v>0</v>
+        <v>0.0352812491454511</v>
       </c>
       <c r="G16" s="11">
         <f>1-E16/$E$17</f>
-        <v>0.0769230769230769</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="H16" s="11">
         <f>G16*(F16-F17)</f>
-        <v>0</v>
+        <v>0.00962215885785031</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="12">
-        <v>0</v>
+        <v>6451</v>
       </c>
       <c r="C17" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11">
         <f>SUM(B12:B17)</f>
-        <v>187968</v>
+        <v>182845</v>
       </c>
       <c r="E17" s="11">
         <f>SUM(C12:C17)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F17" s="11">
         <f>1-D17/$D$17</f>
@@ -1719,19 +1719,19 @@
       <c r="A18" s="8"/>
       <c r="B18" s="12">
         <f>SUM(B13:B17)</f>
-        <v>187968</v>
+        <v>182845</v>
       </c>
       <c r="C18" s="11">
         <f>SUM(C13:C17)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11">
-        <f>SUM(H12:H15)</f>
-        <v>0.975600183992038</v>
+        <f>SUM(H12:H16)</f>
+        <v>0.969227786078124</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -1782,20 +1782,20 @@
       </c>
       <c r="H21" s="11">
         <f>G21*(F21-F22)</f>
-        <v>0.737004947082214</v>
+        <v>0.7402418134344489</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="12">
-        <v>133633</v>
+        <v>133530</v>
       </c>
       <c r="C22" s="11">
         <v>0</v>
       </c>
       <c r="D22" s="11">
         <f>SUM(B21:B22)</f>
-        <v>133633</v>
+        <v>133530</v>
       </c>
       <c r="E22" s="11">
         <f>SUM(C21:C22)</f>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F22" s="11">
         <f>1-D22/$D$26</f>
-        <v>0.262995052917786</v>
+        <v>0.259758186565551</v>
       </c>
       <c r="G22" s="11">
         <f>1-E22/$E$26</f>
@@ -1811,111 +1811,111 @@
       </c>
       <c r="H22" s="11">
         <f>G22*(F22-F23)</f>
-        <v>0.216822285585074</v>
+        <v>0.167783709469086</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="12">
-        <v>39314</v>
+        <v>30266</v>
       </c>
       <c r="C23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(B21:B23)</f>
-        <v>172947</v>
+        <v>163796</v>
       </c>
       <c r="E23" s="11">
         <f>SUM(C21:C23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="11">
         <f>1-D23/$D$26</f>
-        <v>0.046172767332712</v>
+        <v>0.09197447709646479</v>
       </c>
       <c r="G23" s="11">
         <f>1-E23/$E$26</f>
-        <v>1</v>
+        <v>0.999797324685853</v>
       </c>
       <c r="H23" s="11">
         <f>G23*(F23-F24)</f>
-        <v>0.0284967377936124</v>
+        <v>0.050830388357775</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="12">
-        <v>5167</v>
+        <v>9171</v>
       </c>
       <c r="C24" s="11">
-        <v>1507</v>
+        <v>2467</v>
       </c>
       <c r="D24" s="11">
         <f>SUM(B21:B24)</f>
-        <v>178114</v>
+        <v>172967</v>
       </c>
       <c r="E24" s="11">
         <f>SUM(C21:C24)</f>
-        <v>1507</v>
+        <v>2468</v>
       </c>
       <c r="F24" s="11">
         <f>1-D24/$D$26</f>
-        <v>0.0176760295390996</v>
+        <v>0.0411337845853637</v>
       </c>
       <c r="G24" s="11">
         <f>1-E24/$E$26</f>
-        <v>0.509120521172638</v>
+        <v>0.499797324685853</v>
       </c>
       <c r="H24" s="11">
         <f>G24*(F24-F25)</f>
-        <v>0.000356599728593923</v>
+        <v>0.00267649118642993</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="12">
-        <v>127</v>
+        <v>966</v>
       </c>
       <c r="C25" s="11">
-        <v>1535</v>
+        <v>2466</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(B21:B25)</f>
-        <v>178241</v>
+        <v>173933</v>
       </c>
       <c r="E25" s="11">
         <f>SUM(C21:C25)</f>
-        <v>3042</v>
+        <v>4934</v>
       </c>
       <c r="F25" s="11">
         <f>1-D25/$D$26</f>
-        <v>0.0169756065277219</v>
+        <v>0.0357786314978352</v>
       </c>
       <c r="G25" s="11">
         <f>1-E25/$E$26</f>
-        <v>0.009120521172638439</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
         <f>G25*(F25-F26)</f>
-        <v>0.000154826378754467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="12">
-        <v>3078</v>
+        <v>6454</v>
       </c>
       <c r="C26" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(B21:B26)</f>
-        <v>181319</v>
+        <v>180387</v>
       </c>
       <c r="E26" s="11">
         <f>SUM(C21:C26)</f>
-        <v>3070</v>
+        <v>4934</v>
       </c>
       <c r="F26" s="11">
         <f>1-D26/$D$26</f>
@@ -1934,11 +1934,11 @@
       <c r="A27" s="8"/>
       <c r="B27" s="12">
         <f>SUM(B22:B26)</f>
-        <v>181319</v>
+        <v>180387</v>
       </c>
       <c r="C27" s="11">
         <f>SUM(C22:C26)</f>
-        <v>3070</v>
+        <v>4934</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1946,7 +1946,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="11">
         <f>SUM(H21:H24)</f>
-        <v>0.982680570189494</v>
+        <v>0.96153240244774</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
